--- a/账单.xlsx
+++ b/账单.xlsx
@@ -485,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>账单日期: 2025-09-07</t>
+          <t>账单日期: 2025-09-20</t>
         </is>
       </c>
     </row>
@@ -595,25 +595,21 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>FBA190YH5S0X</t>
+          <t>FBA19147TWF4</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr"/>
       <c r="E5" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
-        <is>
-          <t>普货</t>
-        </is>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="n">
-        <v>40</v>
+        <v>610</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
@@ -622,146 +618,59 @@
       </c>
       <c r="I5" s="6" t="inlineStr">
         <is>
-          <t>美东卡派</t>
+          <t>美中卡派</t>
         </is>
       </c>
       <c r="J5" s="8" t="n">
-        <v>208</v>
+        <v>4392</v>
       </c>
       <c r="K5" s="7" t="inlineStr">
         <is>
-          <t>FBA190YH5S0X AVP1 重货减免0.5 单价5.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>2025-09-05</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>FBA190X0BQW4</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr"/>
-      <c r="E6" s="6" t="n">
-        <v>38</v>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>普货</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>667</v>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>美国</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>美西卡派</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>3801.9</v>
-      </c>
-      <c r="K6" s="7" t="inlineStr">
-        <is>
-          <t>FBA190X0BQW4 FBA190X13C1K ABE8 单价5.7</t>
-        </is>
+          <t>FBA19147TWF4 FBA1914859DD  FWA4 单价7.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>总票数:</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>总票数:</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="n">
-        <v>2</v>
+          <t>总重量:</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>610.000 Kg</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>总重量:</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="inlineStr">
-        <is>
-          <t>707.000 Kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
           <t>总费用:</t>
         </is>
       </c>
-      <c r="B10" s="10" t="n">
-        <v>4009.9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+      <c r="B9" s="10" t="n">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>收款银行账号</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="9" t="inlineStr">
-        <is>
-          <t>开户行：招商银行深圳梅林支行</t>
-        </is>
-      </c>
-    </row>
     <row r="14">
-      <c r="A14" s="9" t="inlineStr">
-        <is>
-          <t>户名：罗泽</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="inlineStr">
-        <is>
-          <t>账号：6214837835366331</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="inlineStr">
-        <is>
-          <t>开户行：中国农业银行深圳新洲支行</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="inlineStr">
-        <is>
-          <t>户名：深圳市星睿国际物流有限公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="inlineStr">
-        <is>
-          <t>账号：41007200040037466</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="12" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>公司地址：深圳市宝安区福永镇福海街道同富路3号惠明盛工业园5栋一楼</t>
         </is>
@@ -770,8 +679,8 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A14:K14"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A23:K23"/>
     <mergeCell ref="A3:J3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
